--- a/output/preprocessing.xlsx
+++ b/output/preprocessing.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B75E4F-15F6-D64E-A129-6DF9E0862728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4297F807-50B0-AF45-A391-226BF5BA371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26860" yWindow="500" windowWidth="24240" windowHeight="13080" xr2:uid="{46B76DBE-6C6C-3E4B-978B-4194110382F2}"/>
+    <workbookView xWindow="-26860" yWindow="500" windowWidth="24240" windowHeight="13080" activeTab="2" xr2:uid="{46B76DBE-6C6C-3E4B-978B-4194110382F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="noise reduciton" sheetId="1" r:id="rId1"/>
+    <sheet name="bandpass" sheetId="2" r:id="rId2"/>
+    <sheet name="std xlsr-arabic" sheetId="3" r:id="rId3"/>
+    <sheet name="plot" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>epoch</t>
   </si>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>val_loss</t>
+  </si>
+  <si>
+    <t>Final Test</t>
   </si>
 </sst>
 </file>
@@ -404,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ED8D00-91B0-EE45-AE09-1B805569C73D}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1790,4 +1796,3504 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA67D56-AB7C-0F49-8000-5340AEADF047}">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>31.817489624023398</v>
+      </c>
+      <c r="C2">
+        <v>25.5</v>
+      </c>
+      <c r="D2">
+        <v>0.68328785896301203</v>
+      </c>
+      <c r="E2">
+        <v>1.41941237449646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>26.2000007629394</v>
+      </c>
+      <c r="D3">
+        <v>0.65477848052978505</v>
+      </c>
+      <c r="E3">
+        <v>1.4569329023361199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>39.992393493652301</v>
+      </c>
+      <c r="C4">
+        <v>24.7000007629394</v>
+      </c>
+      <c r="D4">
+        <v>0.64979529380798295</v>
+      </c>
+      <c r="E4">
+        <v>1.4541258811950599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>40.053230285644503</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>0.64442980289459195</v>
+      </c>
+      <c r="E5">
+        <v>1.4476506710052399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>40.825096130371001</v>
+      </c>
+      <c r="C6">
+        <v>30.600000381469702</v>
+      </c>
+      <c r="D6">
+        <v>0.63982397317886297</v>
+      </c>
+      <c r="E6">
+        <v>1.4317332506179801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>41.752849578857401</v>
+      </c>
+      <c r="C7">
+        <v>35.100002288818303</v>
+      </c>
+      <c r="D7">
+        <v>0.63472199440002397</v>
+      </c>
+      <c r="E7">
+        <v>1.4161018133163401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>42.847908020019503</v>
+      </c>
+      <c r="C8">
+        <v>34.299999237060497</v>
+      </c>
+      <c r="D8">
+        <v>0.62873494625091497</v>
+      </c>
+      <c r="E8">
+        <v>1.36718642711639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>43.745246887207003</v>
+      </c>
+      <c r="C9">
+        <v>35.5</v>
+      </c>
+      <c r="D9">
+        <v>0.62221145629882801</v>
+      </c>
+      <c r="E9">
+        <v>1.3816568851470901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>44.768058776855398</v>
+      </c>
+      <c r="C10">
+        <v>37.100002288818303</v>
+      </c>
+      <c r="D10">
+        <v>0.61743515729904097</v>
+      </c>
+      <c r="E10">
+        <v>1.3695206642150799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>45.680606842041001</v>
+      </c>
+      <c r="C11">
+        <v>36.400001525878899</v>
+      </c>
+      <c r="D11">
+        <v>0.61356896162033003</v>
+      </c>
+      <c r="E11">
+        <v>1.3335551023483201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>46.148288726806598</v>
+      </c>
+      <c r="C12">
+        <v>36.299999237060497</v>
+      </c>
+      <c r="D12">
+        <v>0.60912668704986495</v>
+      </c>
+      <c r="E12">
+        <v>1.39008700847625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>47.266159057617102</v>
+      </c>
+      <c r="C13">
+        <v>33.5</v>
+      </c>
+      <c r="D13">
+        <v>0.60592842102050704</v>
+      </c>
+      <c r="E13">
+        <v>1.4108816385269101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>47.490493774413999</v>
+      </c>
+      <c r="C14">
+        <v>35.400001525878899</v>
+      </c>
+      <c r="D14">
+        <v>0.60127413272857599</v>
+      </c>
+      <c r="E14">
+        <v>1.35201203823089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>47.418251037597599</v>
+      </c>
+      <c r="C15">
+        <v>38.600002288818303</v>
+      </c>
+      <c r="D15">
+        <v>0.60112261772155695</v>
+      </c>
+      <c r="E15">
+        <v>1.2992216348648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>47.669200897216797</v>
+      </c>
+      <c r="C16">
+        <v>40.400001525878899</v>
+      </c>
+      <c r="D16">
+        <v>0.59900850057601895</v>
+      </c>
+      <c r="E16">
+        <v>1.28306543827056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>48.292774200439403</v>
+      </c>
+      <c r="C17">
+        <v>35.200000762939403</v>
+      </c>
+      <c r="D17">
+        <v>0.59534633159637396</v>
+      </c>
+      <c r="E17">
+        <v>1.3682774305343599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>47.840305328369098</v>
+      </c>
+      <c r="C18">
+        <v>35.5</v>
+      </c>
+      <c r="D18">
+        <v>0.594415724277496</v>
+      </c>
+      <c r="E18">
+        <v>1.3314254283905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>48.486690521240199</v>
+      </c>
+      <c r="C19">
+        <v>34.5</v>
+      </c>
+      <c r="D19">
+        <v>0.59213590621948198</v>
+      </c>
+      <c r="E19">
+        <v>1.4187699556350699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>48.904941558837798</v>
+      </c>
+      <c r="C20">
+        <v>38.400001525878899</v>
+      </c>
+      <c r="D20">
+        <v>0.59006875753402699</v>
+      </c>
+      <c r="E20">
+        <v>1.32707154750823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>48.8593139648437</v>
+      </c>
+      <c r="C21">
+        <v>35.299999237060497</v>
+      </c>
+      <c r="D21">
+        <v>0.58802479505538896</v>
+      </c>
+      <c r="E21">
+        <v>1.3272289037704399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>49.079849243163999</v>
+      </c>
+      <c r="C22">
+        <v>38.299999237060497</v>
+      </c>
+      <c r="D22">
+        <v>0.58809888362884499</v>
+      </c>
+      <c r="E22">
+        <v>1.2788170576095499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>49.403041839599602</v>
+      </c>
+      <c r="C23">
+        <v>37.900001525878899</v>
+      </c>
+      <c r="D23">
+        <v>0.58308285474777199</v>
+      </c>
+      <c r="E23">
+        <v>1.3209252357482899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>49.581748962402301</v>
+      </c>
+      <c r="C24">
+        <v>37.900001525878899</v>
+      </c>
+      <c r="D24">
+        <v>0.583698749542236</v>
+      </c>
+      <c r="E24">
+        <v>1.30392801761627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>49.779468536376903</v>
+      </c>
+      <c r="C25">
+        <v>40.100002288818303</v>
+      </c>
+      <c r="D25">
+        <v>0.58032375574111905</v>
+      </c>
+      <c r="E25">
+        <v>1.2843874692916799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>50.171100616455</v>
+      </c>
+      <c r="C26">
+        <v>36.400001525878899</v>
+      </c>
+      <c r="D26">
+        <v>0.57870507240295399</v>
+      </c>
+      <c r="E26">
+        <v>1.3707457780837999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>49.463878631591797</v>
+      </c>
+      <c r="C27">
+        <v>41.900001525878899</v>
+      </c>
+      <c r="D27">
+        <v>0.58021920919418302</v>
+      </c>
+      <c r="E27">
+        <v>1.25043272972106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>49.745246887207003</v>
+      </c>
+      <c r="C28">
+        <v>37.600002288818303</v>
+      </c>
+      <c r="D28">
+        <v>0.57737773656845004</v>
+      </c>
+      <c r="E28">
+        <v>1.41929399967193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>50.6539916992187</v>
+      </c>
+      <c r="C29">
+        <v>40.100002288818303</v>
+      </c>
+      <c r="D29">
+        <v>0.57544285058975198</v>
+      </c>
+      <c r="E29">
+        <v>1.34341752529144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>49.9011421203613</v>
+      </c>
+      <c r="C30">
+        <v>43.299999237060497</v>
+      </c>
+      <c r="D30">
+        <v>0.57614207267761197</v>
+      </c>
+      <c r="E30">
+        <v>1.30481433868408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>50.254753112792898</v>
+      </c>
+      <c r="C31">
+        <v>38.400001525878899</v>
+      </c>
+      <c r="D31">
+        <v>0.57813310623168901</v>
+      </c>
+      <c r="E31">
+        <v>1.4067865610122601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>50.471481323242102</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>0.57515627145767201</v>
+      </c>
+      <c r="E32">
+        <v>1.27199053764343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>50.711025238037102</v>
+      </c>
+      <c r="C33">
+        <v>38.5</v>
+      </c>
+      <c r="D33">
+        <v>0.57539910078048695</v>
+      </c>
+      <c r="E33">
+        <v>1.2942755222320499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>50.638782501220703</v>
+      </c>
+      <c r="C34">
+        <v>40.799999237060497</v>
+      </c>
+      <c r="D34">
+        <v>0.57343381643295199</v>
+      </c>
+      <c r="E34">
+        <v>1.3313215970993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>50.129276275634702</v>
+      </c>
+      <c r="C35">
+        <v>41.799999237060497</v>
+      </c>
+      <c r="D35">
+        <v>0.57568413019180298</v>
+      </c>
+      <c r="E35">
+        <v>1.32899665832519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>50.425853729247997</v>
+      </c>
+      <c r="C36">
+        <v>32.900001525878899</v>
+      </c>
+      <c r="D36">
+        <v>0.57468432188034002</v>
+      </c>
+      <c r="E36">
+        <v>1.4774693250656099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>50.612167358398402</v>
+      </c>
+      <c r="C37">
+        <v>35.400001525878899</v>
+      </c>
+      <c r="D37">
+        <v>0.57439672946929898</v>
+      </c>
+      <c r="E37">
+        <v>1.32176530361175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>50.536121368408203</v>
+      </c>
+      <c r="C38">
+        <v>39.200000762939403</v>
+      </c>
+      <c r="D38">
+        <v>0.57222515344619695</v>
+      </c>
+      <c r="E38">
+        <v>1.2721426486968901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>50.406845092773402</v>
+      </c>
+      <c r="C39">
+        <v>43</v>
+      </c>
+      <c r="D39">
+        <v>0.57416367530822698</v>
+      </c>
+      <c r="E39">
+        <v>1.23100173473358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>50.832698822021399</v>
+      </c>
+      <c r="C40">
+        <v>38.799999237060497</v>
+      </c>
+      <c r="D40">
+        <v>0.57305806875228804</v>
+      </c>
+      <c r="E40">
+        <v>1.3649257421493499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>50.790874481201101</v>
+      </c>
+      <c r="C41">
+        <v>33.799999237060497</v>
+      </c>
+      <c r="D41">
+        <v>0.57227587699890103</v>
+      </c>
+      <c r="E41">
+        <v>1.33890187740325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>51.117870330810497</v>
+      </c>
+      <c r="C42">
+        <v>42.600002288818303</v>
+      </c>
+      <c r="D42">
+        <v>0.57185292243957497</v>
+      </c>
+      <c r="E42">
+        <v>1.2708324193954399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>51.441062927246001</v>
+      </c>
+      <c r="C43">
+        <v>34.900001525878899</v>
+      </c>
+      <c r="D43">
+        <v>0.56882709264755205</v>
+      </c>
+      <c r="E43">
+        <v>1.31728851795196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>51.0038032531738</v>
+      </c>
+      <c r="C44">
+        <v>47.200000762939403</v>
+      </c>
+      <c r="D44">
+        <v>0.57211965322494496</v>
+      </c>
+      <c r="E44">
+        <v>1.2042452096939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>51.114067077636697</v>
+      </c>
+      <c r="C45">
+        <v>40.700000762939403</v>
+      </c>
+      <c r="D45">
+        <v>0.56806164979934604</v>
+      </c>
+      <c r="E45">
+        <v>1.28792595863342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>51.927757263183501</v>
+      </c>
+      <c r="C46">
+        <v>41.100002288818303</v>
+      </c>
+      <c r="D46">
+        <v>0.56684023141860895</v>
+      </c>
+      <c r="E46">
+        <v>1.2802823781967101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>51.212928771972599</v>
+      </c>
+      <c r="C47">
+        <v>41.700000762939403</v>
+      </c>
+      <c r="D47">
+        <v>0.56717675924301103</v>
+      </c>
+      <c r="E47">
+        <v>1.2800878286361601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>51.384029388427699</v>
+      </c>
+      <c r="C48">
+        <v>39.5</v>
+      </c>
+      <c r="D48">
+        <v>0.56993216276168801</v>
+      </c>
+      <c r="E48">
+        <v>1.32122921943664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>51.167301177978501</v>
+      </c>
+      <c r="C49">
+        <v>45.700000762939403</v>
+      </c>
+      <c r="D49">
+        <v>0.56671214103698697</v>
+      </c>
+      <c r="E49">
+        <v>1.2211183309555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>51.768058776855398</v>
+      </c>
+      <c r="C50">
+        <v>41.299999237060497</v>
+      </c>
+      <c r="D50">
+        <v>0.56593322753906194</v>
+      </c>
+      <c r="E50">
+        <v>1.32450127601623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>52.197719573974602</v>
+      </c>
+      <c r="C51">
+        <v>42.400001525878899</v>
+      </c>
+      <c r="D51">
+        <v>0.56155455112457198</v>
+      </c>
+      <c r="E51">
+        <v>1.28600561618804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>52.015209197997997</v>
+      </c>
+      <c r="C52">
+        <v>42.799999237060497</v>
+      </c>
+      <c r="D52">
+        <v>0.56316894292831399</v>
+      </c>
+      <c r="E52">
+        <v>1.2450748682021999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>51.787071228027301</v>
+      </c>
+      <c r="C53">
+        <v>38.299999237060497</v>
+      </c>
+      <c r="D53">
+        <v>0.56339561939239502</v>
+      </c>
+      <c r="E53">
+        <v>1.33203732967376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>51.836502075195298</v>
+      </c>
+      <c r="C54">
+        <v>42.299999237060497</v>
+      </c>
+      <c r="D54">
+        <v>0.56162226200103704</v>
+      </c>
+      <c r="E54">
+        <v>1.2663644552230799</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>51.821292877197202</v>
+      </c>
+      <c r="C55">
+        <v>43.100002288818303</v>
+      </c>
+      <c r="D55">
+        <v>0.56200730800628595</v>
+      </c>
+      <c r="E55">
+        <v>1.2601464986801101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>52.201519012451101</v>
+      </c>
+      <c r="C56">
+        <v>41.600002288818303</v>
+      </c>
+      <c r="D56">
+        <v>0.56272959709167403</v>
+      </c>
+      <c r="E56">
+        <v>1.3119105100631701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>52.091255187988203</v>
+      </c>
+      <c r="C57">
+        <v>41.200000762939403</v>
+      </c>
+      <c r="D57">
+        <v>0.55760627985000599</v>
+      </c>
+      <c r="E57">
+        <v>1.3043895959854099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>52.193916320800703</v>
+      </c>
+      <c r="C58">
+        <v>43</v>
+      </c>
+      <c r="D58">
+        <v>0.55841308832168501</v>
+      </c>
+      <c r="E58">
+        <v>1.40376985073089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>52.079849243163999</v>
+      </c>
+      <c r="C59">
+        <v>42.700000762939403</v>
+      </c>
+      <c r="D59">
+        <v>0.55862057209014804</v>
+      </c>
+      <c r="E59">
+        <v>1.2481945753097501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>51.992393493652301</v>
+      </c>
+      <c r="C60">
+        <v>40</v>
+      </c>
+      <c r="D60">
+        <v>0.55858743190765303</v>
+      </c>
+      <c r="E60">
+        <v>1.28131222724914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>52.471481323242102</v>
+      </c>
+      <c r="C61">
+        <v>40.799999237060497</v>
+      </c>
+      <c r="D61">
+        <v>0.55958360433578402</v>
+      </c>
+      <c r="E61">
+        <v>1.4152747392654399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>52.205322265625</v>
+      </c>
+      <c r="C62">
+        <v>39.700000762939403</v>
+      </c>
+      <c r="D62">
+        <v>0.55924654006957997</v>
+      </c>
+      <c r="E62">
+        <v>1.3759016990661599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>52.520912170410099</v>
+      </c>
+      <c r="C63">
+        <v>40.700000762939403</v>
+      </c>
+      <c r="D63">
+        <v>0.55622422695159901</v>
+      </c>
+      <c r="E63">
+        <v>1.36485803127288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>52.190113067626903</v>
+      </c>
+      <c r="C64">
+        <v>43.600002288818303</v>
+      </c>
+      <c r="D64">
+        <v>0.55714166164398105</v>
+      </c>
+      <c r="E64">
+        <v>1.26560235023498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>53.2091255187988</v>
+      </c>
+      <c r="C65">
+        <v>38.5</v>
+      </c>
+      <c r="D65">
+        <v>0.55516117811203003</v>
+      </c>
+      <c r="E65">
+        <v>1.3012961149215601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>52.543724060058501</v>
+      </c>
+      <c r="C66">
+        <v>41.700000762939403</v>
+      </c>
+      <c r="D66">
+        <v>0.555669546127319</v>
+      </c>
+      <c r="E66">
+        <v>1.25231492519378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>52.958175659179602</v>
+      </c>
+      <c r="C67">
+        <v>30.600000381469702</v>
+      </c>
+      <c r="D67">
+        <v>0.55550348758697499</v>
+      </c>
+      <c r="E67">
+        <v>1.4937870502471899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>52.749050140380803</v>
+      </c>
+      <c r="C68">
+        <v>38.600002288818303</v>
+      </c>
+      <c r="D68">
+        <v>0.55355173349380404</v>
+      </c>
+      <c r="E68">
+        <v>1.3267283439636199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>53.038021087646399</v>
+      </c>
+      <c r="C69">
+        <v>38.700000762939403</v>
+      </c>
+      <c r="D69">
+        <v>0.55262470245361295</v>
+      </c>
+      <c r="E69">
+        <v>1.3746420145034699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>52.589351654052699</v>
+      </c>
+      <c r="C70">
+        <v>41.299999237060497</v>
+      </c>
+      <c r="D70">
+        <v>0.55215090513229304</v>
+      </c>
+      <c r="E70">
+        <v>1.29738557338714</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>53.224334716796797</v>
+      </c>
+      <c r="C71">
+        <v>42.5</v>
+      </c>
+      <c r="D71">
+        <v>0.55263513326644897</v>
+      </c>
+      <c r="E71">
+        <v>1.23714935779571</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>52.509506225585902</v>
+      </c>
+      <c r="C72">
+        <v>42.299999237060497</v>
+      </c>
+      <c r="D72">
+        <v>0.551879942417144</v>
+      </c>
+      <c r="E72">
+        <v>1.3849186897277801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>53.190113067626903</v>
+      </c>
+      <c r="C73">
+        <v>43.200000762939403</v>
+      </c>
+      <c r="D73">
+        <v>0.54854279756545998</v>
+      </c>
+      <c r="E73">
+        <v>1.29922759532928</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>52.912548065185497</v>
+      </c>
+      <c r="C74">
+        <v>41.200000762939403</v>
+      </c>
+      <c r="D74">
+        <v>0.55487662553787198</v>
+      </c>
+      <c r="E74">
+        <v>1.2861353158950799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>52.825096130371001</v>
+      </c>
+      <c r="C75">
+        <v>38.600002288818303</v>
+      </c>
+      <c r="D75">
+        <v>0.55261105298995905</v>
+      </c>
+      <c r="E75">
+        <v>1.29213106632232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>53.019012451171797</v>
+      </c>
+      <c r="C76">
+        <v>42.400001525878899</v>
+      </c>
+      <c r="D76">
+        <v>0.55171257257461503</v>
+      </c>
+      <c r="E76">
+        <v>1.26975905895233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>53.661598205566399</v>
+      </c>
+      <c r="C77">
+        <v>39.700000762939403</v>
+      </c>
+      <c r="D77">
+        <v>0.550775706768035</v>
+      </c>
+      <c r="E77">
+        <v>1.3399580717086701</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>53.490493774413999</v>
+      </c>
+      <c r="C78">
+        <v>39.600002288818303</v>
+      </c>
+      <c r="D78">
+        <v>0.55021226406097401</v>
+      </c>
+      <c r="E78">
+        <v>1.3164583444595299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>52.813686370849602</v>
+      </c>
+      <c r="C79">
+        <v>39.900001525878899</v>
+      </c>
+      <c r="D79">
+        <v>0.55423492193222001</v>
+      </c>
+      <c r="E79">
+        <v>1.3276914358139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>53.889732360839801</v>
+      </c>
+      <c r="C80">
+        <v>37.600002288818303</v>
+      </c>
+      <c r="D80">
+        <v>0.54790884256362904</v>
+      </c>
+      <c r="E80">
+        <v>1.3053066730499201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>53.547527313232401</v>
+      </c>
+      <c r="C81">
+        <v>36.400001525878899</v>
+      </c>
+      <c r="D81">
+        <v>0.55131542682647705</v>
+      </c>
+      <c r="E81">
+        <v>1.4231926202773999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>53.437263488769503</v>
+      </c>
+      <c r="C82">
+        <v>40</v>
+      </c>
+      <c r="D82">
+        <v>0.54839068651199296</v>
+      </c>
+      <c r="E82">
+        <v>1.3107724189758301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>53.323192596435497</v>
+      </c>
+      <c r="C83">
+        <v>38</v>
+      </c>
+      <c r="D83">
+        <v>0.54789060354232699</v>
+      </c>
+      <c r="E83">
+        <v>1.3489373922348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>53.300380706787102</v>
+      </c>
+      <c r="C84">
+        <v>42.700000762939403</v>
+      </c>
+      <c r="D84">
+        <v>0.55091774463653498</v>
+      </c>
+      <c r="E84">
+        <v>1.30793321132659</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>53.992393493652301</v>
+      </c>
+      <c r="C85">
+        <v>41</v>
+      </c>
+      <c r="D85">
+        <v>0.54803997278213501</v>
+      </c>
+      <c r="E85">
+        <v>1.3134914636611901</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>53.638782501220703</v>
+      </c>
+      <c r="C86">
+        <v>41.600002288818303</v>
+      </c>
+      <c r="D86">
+        <v>0.54719805717468195</v>
+      </c>
+      <c r="E86">
+        <v>1.3458994626998899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>53.315589904785099</v>
+      </c>
+      <c r="C87">
+        <v>43.400001525878899</v>
+      </c>
+      <c r="D87">
+        <v>0.54611307382583596</v>
+      </c>
+      <c r="E87">
+        <v>1.24650430679321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>53.832698822021399</v>
+      </c>
+      <c r="C88">
+        <v>40.600002288818303</v>
+      </c>
+      <c r="D88">
+        <v>0.54735159873962402</v>
+      </c>
+      <c r="E88">
+        <v>1.38438892364501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>54.269962310791001</v>
+      </c>
+      <c r="C89">
+        <v>37.700000762939403</v>
+      </c>
+      <c r="D89">
+        <v>0.54572552442550604</v>
+      </c>
+      <c r="E89">
+        <v>1.39751625061035</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>54.053230285644503</v>
+      </c>
+      <c r="C90">
+        <v>41.400001525878899</v>
+      </c>
+      <c r="D90">
+        <v>0.54600960016250599</v>
+      </c>
+      <c r="E90">
+        <v>1.38974952697753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>54.638782501220703</v>
+      </c>
+      <c r="C91">
+        <v>38.299999237060497</v>
+      </c>
+      <c r="D91">
+        <v>0.54333966970443703</v>
+      </c>
+      <c r="E91">
+        <v>1.44642174243927</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>54.076045989990199</v>
+      </c>
+      <c r="C92">
+        <v>40.200000762939403</v>
+      </c>
+      <c r="D92">
+        <v>0.54594254493713301</v>
+      </c>
+      <c r="E92">
+        <v>1.3624285459518399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>53.855514526367102</v>
+      </c>
+      <c r="C93">
+        <v>41.700000762939403</v>
+      </c>
+      <c r="D93">
+        <v>0.54515719413757302</v>
+      </c>
+      <c r="E93">
+        <v>1.29558289051055</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>53.836502075195298</v>
+      </c>
+      <c r="C94">
+        <v>42.799999237060497</v>
+      </c>
+      <c r="D94">
+        <v>0.54479670524597101</v>
+      </c>
+      <c r="E94">
+        <v>1.27946436405181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>54.125473022460902</v>
+      </c>
+      <c r="C95">
+        <v>43.700000762939403</v>
+      </c>
+      <c r="D95">
+        <v>0.54554820060729903</v>
+      </c>
+      <c r="E95">
+        <v>1.26250100135803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>54.444866180419901</v>
+      </c>
+      <c r="C96">
+        <v>40.700000762939403</v>
+      </c>
+      <c r="D96">
+        <v>0.54453450441360396</v>
+      </c>
+      <c r="E96">
+        <v>1.3358458280563299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>53.828895568847599</v>
+      </c>
+      <c r="C97">
+        <v>39.900001525878899</v>
+      </c>
+      <c r="D97">
+        <v>0.544663965702056</v>
+      </c>
+      <c r="E97">
+        <v>1.3589824438095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>53.570343017578097</v>
+      </c>
+      <c r="C98">
+        <v>41.700000762939403</v>
+      </c>
+      <c r="D98">
+        <v>0.54542225599288896</v>
+      </c>
+      <c r="E98">
+        <v>1.3433979749679501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>53.4524726867675</v>
+      </c>
+      <c r="C99">
+        <v>41.100002288818303</v>
+      </c>
+      <c r="D99">
+        <v>0.54609662294387795</v>
+      </c>
+      <c r="E99">
+        <v>1.3242923021316499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>54.285171508788999</v>
+      </c>
+      <c r="C100">
+        <v>43</v>
+      </c>
+      <c r="D100">
+        <v>0.54081231355667103</v>
+      </c>
+      <c r="E100">
+        <v>1.3001085519790601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>54.201519012451101</v>
+      </c>
+      <c r="C101">
+        <v>41</v>
+      </c>
+      <c r="D101">
+        <v>0.54259127378463701</v>
+      </c>
+      <c r="E101">
+        <v>1.3189996480941699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>43.200000762939403</v>
+      </c>
+      <c r="C102">
+        <v>1.3051346540451001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2435A7-CDEC-254D-92F6-4E63EC2CDF53}">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29.1520900726318</v>
+      </c>
+      <c r="C2">
+        <v>25.5</v>
+      </c>
+      <c r="D2">
+        <v>0.68571740388870195</v>
+      </c>
+      <c r="E2">
+        <v>1.4150475263595499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>26.2000007629394</v>
+      </c>
+      <c r="D3">
+        <v>0.65536743402481001</v>
+      </c>
+      <c r="E3">
+        <v>1.4554144144058201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>39.992393493652301</v>
+      </c>
+      <c r="C4">
+        <v>24.7000007629394</v>
+      </c>
+      <c r="D4">
+        <v>0.64812749624252297</v>
+      </c>
+      <c r="E4">
+        <v>1.4458717107772801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>40.2433471679687</v>
+      </c>
+      <c r="C5">
+        <v>23.899999618530199</v>
+      </c>
+      <c r="D5">
+        <v>0.64032155275344804</v>
+      </c>
+      <c r="E5">
+        <v>1.4408880472183201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>41.646389007568303</v>
+      </c>
+      <c r="C6">
+        <v>30.2000007629394</v>
+      </c>
+      <c r="D6">
+        <v>0.63191199302673295</v>
+      </c>
+      <c r="E6">
+        <v>1.42391192913055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>43.783267974853501</v>
+      </c>
+      <c r="C7">
+        <v>33.100002288818303</v>
+      </c>
+      <c r="D7">
+        <v>0.62135368585586503</v>
+      </c>
+      <c r="E7">
+        <v>1.4042879343032799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>45.851711273193303</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>0.610950708389282</v>
+      </c>
+      <c r="E8">
+        <v>1.35832583904266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>47.482891082763601</v>
+      </c>
+      <c r="C9">
+        <v>33.600002288818303</v>
+      </c>
+      <c r="D9">
+        <v>0.600133657455444</v>
+      </c>
+      <c r="E9">
+        <v>1.3607248067855799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>49.163497924804602</v>
+      </c>
+      <c r="C10">
+        <v>35.200000762939403</v>
+      </c>
+      <c r="D10">
+        <v>0.58828353881835904</v>
+      </c>
+      <c r="E10">
+        <v>1.3291883468627901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>50.300380706787102</v>
+      </c>
+      <c r="C11">
+        <v>43.5</v>
+      </c>
+      <c r="D11">
+        <v>0.57833993434905995</v>
+      </c>
+      <c r="E11">
+        <v>1.3089531660079901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>52.011405944824197</v>
+      </c>
+      <c r="C12">
+        <v>36.400001525878899</v>
+      </c>
+      <c r="D12">
+        <v>0.56674510240554798</v>
+      </c>
+      <c r="E12">
+        <v>1.3429380655288601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>53.049430847167898</v>
+      </c>
+      <c r="C13">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>0.55871063470840399</v>
+      </c>
+      <c r="E13">
+        <v>1.41444528102874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>53.589351654052699</v>
+      </c>
+      <c r="C14">
+        <v>38.200000762939403</v>
+      </c>
+      <c r="D14">
+        <v>0.55200004577636697</v>
+      </c>
+      <c r="E14">
+        <v>1.3324664831161499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>54.669200897216797</v>
+      </c>
+      <c r="C15">
+        <v>46.200000762939403</v>
+      </c>
+      <c r="D15">
+        <v>0.54320865869522095</v>
+      </c>
+      <c r="E15">
+        <v>1.2359436750411901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>54.904941558837798</v>
+      </c>
+      <c r="C16">
+        <v>45.100002288818303</v>
+      </c>
+      <c r="D16">
+        <v>0.53761243820190396</v>
+      </c>
+      <c r="E16">
+        <v>1.2481892108917201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>56.5513305664062</v>
+      </c>
+      <c r="C17">
+        <v>40.100002288818303</v>
+      </c>
+      <c r="D17">
+        <v>0.53065264225006104</v>
+      </c>
+      <c r="E17">
+        <v>1.33288478851318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>56.524715423583899</v>
+      </c>
+      <c r="C18">
+        <v>45.5</v>
+      </c>
+      <c r="D18">
+        <v>0.52391564846038796</v>
+      </c>
+      <c r="E18">
+        <v>1.30464816093444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>56.885932922363203</v>
+      </c>
+      <c r="C19">
+        <v>36.900001525878899</v>
+      </c>
+      <c r="D19">
+        <v>0.52028822898864702</v>
+      </c>
+      <c r="E19">
+        <v>1.4234153032302801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>57.326995849609297</v>
+      </c>
+      <c r="C20">
+        <v>50.700000762939403</v>
+      </c>
+      <c r="D20">
+        <v>0.518643498420715</v>
+      </c>
+      <c r="E20">
+        <v>1.20285785198211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>57.737640380859297</v>
+      </c>
+      <c r="C21">
+        <v>45.799999237060497</v>
+      </c>
+      <c r="D21">
+        <v>0.51486444473266602</v>
+      </c>
+      <c r="E21">
+        <v>1.2396485805511399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>57.809886932372997</v>
+      </c>
+      <c r="C22">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>0.51167964935302701</v>
+      </c>
+      <c r="E22">
+        <v>1.1670224666595399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>58.216728210449197</v>
+      </c>
+      <c r="C23">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>0.50542014837265004</v>
+      </c>
+      <c r="E23">
+        <v>1.2213662862777701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>58.950569152832003</v>
+      </c>
+      <c r="C24">
+        <v>53.799999237060497</v>
+      </c>
+      <c r="D24">
+        <v>0.50264805555343595</v>
+      </c>
+      <c r="E24">
+        <v>1.14913070201873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>58.733840942382798</v>
+      </c>
+      <c r="C25">
+        <v>50.600002288818303</v>
+      </c>
+      <c r="D25">
+        <v>0.50568068027496305</v>
+      </c>
+      <c r="E25">
+        <v>1.1426305770873999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>58.349807739257798</v>
+      </c>
+      <c r="C26">
+        <v>46.100002288818303</v>
+      </c>
+      <c r="D26">
+        <v>0.50179177522659302</v>
+      </c>
+      <c r="E26">
+        <v>1.31373155117034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>58.285171508788999</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>0.50124639272689797</v>
+      </c>
+      <c r="E27">
+        <v>1.1194597482681199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>59.174903869628899</v>
+      </c>
+      <c r="C28">
+        <v>43.799999237060497</v>
+      </c>
+      <c r="D28">
+        <v>0.499572813510894</v>
+      </c>
+      <c r="E28">
+        <v>1.3606374263763401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>59.399238586425703</v>
+      </c>
+      <c r="C29">
+        <v>50.600002288818303</v>
+      </c>
+      <c r="D29">
+        <v>0.49756851792335499</v>
+      </c>
+      <c r="E29">
+        <v>1.2207268476486199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>59.319389343261697</v>
+      </c>
+      <c r="C30">
+        <v>52.700000762939403</v>
+      </c>
+      <c r="D30">
+        <v>0.49825879931449801</v>
+      </c>
+      <c r="E30">
+        <v>1.24402439594268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>58.889732360839801</v>
+      </c>
+      <c r="C31">
+        <v>38.700000762939403</v>
+      </c>
+      <c r="D31">
+        <v>0.49950993061065602</v>
+      </c>
+      <c r="E31">
+        <v>1.53381371498107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>59.2433471679687</v>
+      </c>
+      <c r="C32">
+        <v>47.299999237060497</v>
+      </c>
+      <c r="D32">
+        <v>0.49476227164268399</v>
+      </c>
+      <c r="E32">
+        <v>1.23980700969696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>59.463878631591797</v>
+      </c>
+      <c r="C33">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>0.49657621979713401</v>
+      </c>
+      <c r="E33">
+        <v>1.1580622196197501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>59.532318115234297</v>
+      </c>
+      <c r="C34">
+        <v>54</v>
+      </c>
+      <c r="D34">
+        <v>0.49401512742042503</v>
+      </c>
+      <c r="E34">
+        <v>1.1692936420440601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>59.463878631591797</v>
+      </c>
+      <c r="C35">
+        <v>46.400001525878899</v>
+      </c>
+      <c r="D35">
+        <v>0.49708950519561701</v>
+      </c>
+      <c r="E35">
+        <v>1.3385614156723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>59.676807403564403</v>
+      </c>
+      <c r="C36">
+        <v>43.5</v>
+      </c>
+      <c r="D36">
+        <v>0.49510800838470398</v>
+      </c>
+      <c r="E36">
+        <v>1.3519157171249301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>59.254753112792898</v>
+      </c>
+      <c r="C37">
+        <v>51.299999237060497</v>
+      </c>
+      <c r="D37">
+        <v>0.49613940715789701</v>
+      </c>
+      <c r="E37">
+        <v>1.2712160348892201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>60.315589904785099</v>
+      </c>
+      <c r="C38">
+        <v>51.200000762939403</v>
+      </c>
+      <c r="D38">
+        <v>0.490754574537277</v>
+      </c>
+      <c r="E38">
+        <v>1.12448489665985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>59.889732360839801</v>
+      </c>
+      <c r="C39">
+        <v>46.200000762939403</v>
+      </c>
+      <c r="D39">
+        <v>0.49623844027519198</v>
+      </c>
+      <c r="E39">
+        <v>1.21919858455657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>60.596958160400298</v>
+      </c>
+      <c r="C40">
+        <v>49.100002288818303</v>
+      </c>
+      <c r="D40">
+        <v>0.49125298857688898</v>
+      </c>
+      <c r="E40">
+        <v>1.41968858242034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>60.0684394836425</v>
+      </c>
+      <c r="C41">
+        <v>36.400001525878899</v>
+      </c>
+      <c r="D41">
+        <v>0.49296274781227101</v>
+      </c>
+      <c r="E41">
+        <v>1.49465680122375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>60.296577453613203</v>
+      </c>
+      <c r="C42">
+        <v>53.5</v>
+      </c>
+      <c r="D42">
+        <v>0.488089948892593</v>
+      </c>
+      <c r="E42">
+        <v>1.19656693935394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>60.235740661621001</v>
+      </c>
+      <c r="C43">
+        <v>43.900001525878899</v>
+      </c>
+      <c r="D43">
+        <v>0.484100371599197</v>
+      </c>
+      <c r="E43">
+        <v>1.3388130664825399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>60.045627593994098</v>
+      </c>
+      <c r="C44">
+        <v>53.900001525878899</v>
+      </c>
+      <c r="D44">
+        <v>0.48720082640647799</v>
+      </c>
+      <c r="E44">
+        <v>1.1192427873611399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>60.4524726867675</v>
+      </c>
+      <c r="C45">
+        <v>50.200000762939403</v>
+      </c>
+      <c r="D45">
+        <v>0.48026609420776301</v>
+      </c>
+      <c r="E45">
+        <v>1.19032895565032</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>61.091255187988203</v>
+      </c>
+      <c r="C46">
+        <v>41.900001525878899</v>
+      </c>
+      <c r="D46">
+        <v>0.47758054733276301</v>
+      </c>
+      <c r="E46">
+        <v>1.40800476074218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>60.604560852050703</v>
+      </c>
+      <c r="C47">
+        <v>54.600002288818303</v>
+      </c>
+      <c r="D47">
+        <v>0.48176637291908198</v>
+      </c>
+      <c r="E47">
+        <v>1.1143219470977701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>60.536121368408203</v>
+      </c>
+      <c r="C48">
+        <v>47.900001525878899</v>
+      </c>
+      <c r="D48">
+        <v>0.48252153396606401</v>
+      </c>
+      <c r="E48">
+        <v>1.3111699819564799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>60.828895568847599</v>
+      </c>
+      <c r="C49">
+        <v>58.700000762939403</v>
+      </c>
+      <c r="D49">
+        <v>0.478429615497589</v>
+      </c>
+      <c r="E49">
+        <v>1.0593386888503999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>60.912548065185497</v>
+      </c>
+      <c r="C50">
+        <v>50.200000762939403</v>
+      </c>
+      <c r="D50">
+        <v>0.47945299744606001</v>
+      </c>
+      <c r="E50">
+        <v>1.2791429758071899</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>61.893535614013601</v>
+      </c>
+      <c r="C51">
+        <v>47.100002288818303</v>
+      </c>
+      <c r="D51">
+        <v>0.47411298751830999</v>
+      </c>
+      <c r="E51">
+        <v>1.2730740308761499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>62.034221649169901</v>
+      </c>
+      <c r="C52">
+        <v>58.5</v>
+      </c>
+      <c r="D52">
+        <v>0.47466230392455999</v>
+      </c>
+      <c r="E52">
+        <v>1.1276775598526001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>62.133079528808501</v>
+      </c>
+      <c r="C53">
+        <v>51.900001525878899</v>
+      </c>
+      <c r="D53">
+        <v>0.472406506538391</v>
+      </c>
+      <c r="E53">
+        <v>1.15322721004486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>61.365016937255803</v>
+      </c>
+      <c r="C54">
+        <v>49.5</v>
+      </c>
+      <c r="D54">
+        <v>0.47639715671539301</v>
+      </c>
+      <c r="E54">
+        <v>1.1541131734848</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>61.984790802001903</v>
+      </c>
+      <c r="C55">
+        <v>50.200000762939403</v>
+      </c>
+      <c r="D55">
+        <v>0.47086852788925099</v>
+      </c>
+      <c r="E55">
+        <v>1.2193408012390099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>62.019012451171797</v>
+      </c>
+      <c r="C56">
+        <v>48.799999237060497</v>
+      </c>
+      <c r="D56">
+        <v>0.46879741549491799</v>
+      </c>
+      <c r="E56">
+        <v>1.3122372627258301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>62.152091979980398</v>
+      </c>
+      <c r="C57">
+        <v>50.799999237060497</v>
+      </c>
+      <c r="D57">
+        <v>0.46982157230377197</v>
+      </c>
+      <c r="E57">
+        <v>1.32860326766967</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>61.825096130371001</v>
+      </c>
+      <c r="C58">
+        <v>41.900001525878899</v>
+      </c>
+      <c r="D58">
+        <v>0.466462701559066</v>
+      </c>
+      <c r="E58">
+        <v>1.5650843381881701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>61.885932922363203</v>
+      </c>
+      <c r="C59">
+        <v>51.400001525878899</v>
+      </c>
+      <c r="D59">
+        <v>0.46797117590904203</v>
+      </c>
+      <c r="E59">
+        <v>1.17518198490142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>61.847908020019503</v>
+      </c>
+      <c r="C60">
+        <v>49.100002288818303</v>
+      </c>
+      <c r="D60">
+        <v>0.47449463605880698</v>
+      </c>
+      <c r="E60">
+        <v>1.1710965633392301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>62.121673583984297</v>
+      </c>
+      <c r="C61">
+        <v>48.799999237060497</v>
+      </c>
+      <c r="D61">
+        <v>0.46882784366607599</v>
+      </c>
+      <c r="E61">
+        <v>1.2804579734802199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>62.581748962402301</v>
+      </c>
+      <c r="C62">
+        <v>49.799999237060497</v>
+      </c>
+      <c r="D62">
+        <v>0.46547099947929299</v>
+      </c>
+      <c r="E62">
+        <v>1.1997929811477599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>62.6197700500488</v>
+      </c>
+      <c r="C63">
+        <v>54.400001525878899</v>
+      </c>
+      <c r="D63">
+        <v>0.462710261344909</v>
+      </c>
+      <c r="E63">
+        <v>1.2138466835021899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>62.604560852050703</v>
+      </c>
+      <c r="C64">
+        <v>52.299999237060497</v>
+      </c>
+      <c r="D64">
+        <v>0.466777443885803</v>
+      </c>
+      <c r="E64">
+        <v>1.12338984012603</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>62.494297027587798</v>
+      </c>
+      <c r="C65">
+        <v>51.799999237060497</v>
+      </c>
+      <c r="D65">
+        <v>0.462393909692764</v>
+      </c>
+      <c r="E65">
+        <v>1.1850280761718699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>62.315589904785099</v>
+      </c>
+      <c r="C66">
+        <v>52.100002288818303</v>
+      </c>
+      <c r="D66">
+        <v>0.46798333525657598</v>
+      </c>
+      <c r="E66">
+        <v>1.2288576364517201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>63.167301177978501</v>
+      </c>
+      <c r="C67">
+        <v>46.400001525878899</v>
+      </c>
+      <c r="D67">
+        <v>0.46076750755309998</v>
+      </c>
+      <c r="E67">
+        <v>1.2892762422561601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>63.3079833984375</v>
+      </c>
+      <c r="C68">
+        <v>50.299999237060497</v>
+      </c>
+      <c r="D68">
+        <v>0.46252456307411099</v>
+      </c>
+      <c r="E68">
+        <v>1.1674118041992101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>63.076045989990199</v>
+      </c>
+      <c r="C69">
+        <v>41.799999237060497</v>
+      </c>
+      <c r="D69">
+        <v>0.46022695302963201</v>
+      </c>
+      <c r="E69">
+        <v>1.45272576808929</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>62.745246887207003</v>
+      </c>
+      <c r="C70">
+        <v>47.5</v>
+      </c>
+      <c r="D70">
+        <v>0.45938956737518299</v>
+      </c>
+      <c r="E70">
+        <v>1.21853983402252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>63.049430847167898</v>
+      </c>
+      <c r="C71">
+        <v>56.900001525878899</v>
+      </c>
+      <c r="D71">
+        <v>0.46188321709632801</v>
+      </c>
+      <c r="E71">
+        <v>1.1024755239486601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>63.498096466064403</v>
+      </c>
+      <c r="C72">
+        <v>43.600002288818303</v>
+      </c>
+      <c r="D72">
+        <v>0.45830923318862898</v>
+      </c>
+      <c r="E72">
+        <v>1.4632270336151101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>62.874523162841797</v>
+      </c>
+      <c r="C73">
+        <v>55.5</v>
+      </c>
+      <c r="D73">
+        <v>0.455313831567764</v>
+      </c>
+      <c r="E73">
+        <v>1.0950518846511801</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>63.300380706787102</v>
+      </c>
+      <c r="C74">
+        <v>53.100002288818303</v>
+      </c>
+      <c r="D74">
+        <v>0.45853275060653598</v>
+      </c>
+      <c r="E74">
+        <v>1.1389896869659399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>62.851711273193303</v>
+      </c>
+      <c r="C75">
+        <v>43.400001525878899</v>
+      </c>
+      <c r="D75">
+        <v>0.45789664983749301</v>
+      </c>
+      <c r="E75">
+        <v>1.48276686668396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>63.091255187988203</v>
+      </c>
+      <c r="C76">
+        <v>46.799999237060497</v>
+      </c>
+      <c r="D76">
+        <v>0.45804542303085299</v>
+      </c>
+      <c r="E76">
+        <v>1.3239004611968901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>63.182510375976499</v>
+      </c>
+      <c r="C77">
+        <v>53.100002288818303</v>
+      </c>
+      <c r="D77">
+        <v>0.458568304777145</v>
+      </c>
+      <c r="E77">
+        <v>1.1206427812576201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>63.475284576416001</v>
+      </c>
+      <c r="C78">
+        <v>48.799999237060497</v>
+      </c>
+      <c r="D78">
+        <v>0.458193749189376</v>
+      </c>
+      <c r="E78">
+        <v>1.32781875133514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>64.152091979980398</v>
+      </c>
+      <c r="C79">
+        <v>50.100002288818303</v>
+      </c>
+      <c r="D79">
+        <v>0.45189937949180597</v>
+      </c>
+      <c r="E79">
+        <v>1.2884109020233101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>63.406845092773402</v>
+      </c>
+      <c r="C80">
+        <v>47.700000762939403</v>
+      </c>
+      <c r="D80">
+        <v>0.45440033078193598</v>
+      </c>
+      <c r="E80">
+        <v>1.40461766719818</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>64.429656982421804</v>
+      </c>
+      <c r="C81">
+        <v>43.299999237060497</v>
+      </c>
+      <c r="D81">
+        <v>0.45257487893104498</v>
+      </c>
+      <c r="E81">
+        <v>1.51779925823211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>63.885932922363203</v>
+      </c>
+      <c r="C82">
+        <v>40.200000762939403</v>
+      </c>
+      <c r="D82">
+        <v>0.45553329586982699</v>
+      </c>
+      <c r="E82">
+        <v>1.45636022090911</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>63.798477172851499</v>
+      </c>
+      <c r="C83">
+        <v>51.5</v>
+      </c>
+      <c r="D83">
+        <v>0.45397722721099798</v>
+      </c>
+      <c r="E83">
+        <v>1.2112166881561199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>63.768058776855398</v>
+      </c>
+      <c r="C84">
+        <v>44.5</v>
+      </c>
+      <c r="D84">
+        <v>0.45183148980140603</v>
+      </c>
+      <c r="E84">
+        <v>1.4407160282135001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>63.7566528320312</v>
+      </c>
+      <c r="C85">
+        <v>51.200000762939403</v>
+      </c>
+      <c r="D85">
+        <v>0.45129132270812899</v>
+      </c>
+      <c r="E85">
+        <v>1.12719655036926</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>63.836502075195298</v>
+      </c>
+      <c r="C86">
+        <v>53.600002288818303</v>
+      </c>
+      <c r="D86">
+        <v>0.45085132122039701</v>
+      </c>
+      <c r="E86">
+        <v>1.1777590513229299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>64.011405944824205</v>
+      </c>
+      <c r="C87">
+        <v>58</v>
+      </c>
+      <c r="D87">
+        <v>0.450812608003616</v>
+      </c>
+      <c r="E87">
+        <v>1.0457857847213701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>63.467681884765597</v>
+      </c>
+      <c r="C88">
+        <v>50</v>
+      </c>
+      <c r="D88">
+        <v>0.450956970453262</v>
+      </c>
+      <c r="E88">
+        <v>1.1533889770507799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>64.406845092773395</v>
+      </c>
+      <c r="C89">
+        <v>52.100002288818303</v>
+      </c>
+      <c r="D89">
+        <v>0.44625490903854298</v>
+      </c>
+      <c r="E89">
+        <v>1.2454818487167301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>63.684410095214801</v>
+      </c>
+      <c r="C90">
+        <v>48.299999237060497</v>
+      </c>
+      <c r="D90">
+        <v>0.45314043760299599</v>
+      </c>
+      <c r="E90">
+        <v>1.2624311447143499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>63.7566528320312</v>
+      </c>
+      <c r="C91">
+        <v>48.600002288818303</v>
+      </c>
+      <c r="D91">
+        <v>0.45208925008773798</v>
+      </c>
+      <c r="E91">
+        <v>1.2079199552536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>64.239540100097599</v>
+      </c>
+      <c r="C92">
+        <v>52.5</v>
+      </c>
+      <c r="D92">
+        <v>0.44593232870101901</v>
+      </c>
+      <c r="E92">
+        <v>1.26343238353729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>63.699619293212798</v>
+      </c>
+      <c r="C93">
+        <v>48.400001525878899</v>
+      </c>
+      <c r="D93">
+        <v>0.44729286432266202</v>
+      </c>
+      <c r="E93">
+        <v>1.4058746099471999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>63.866920471191399</v>
+      </c>
+      <c r="C94">
+        <v>53.100002288818303</v>
+      </c>
+      <c r="D94">
+        <v>0.450304836034774</v>
+      </c>
+      <c r="E94">
+        <v>1.21724605560302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>64.543724060058594</v>
+      </c>
+      <c r="C95">
+        <v>48</v>
+      </c>
+      <c r="D95">
+        <v>0.44738703966140703</v>
+      </c>
+      <c r="E95">
+        <v>1.40002942085266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>63.847908020019503</v>
+      </c>
+      <c r="C96">
+        <v>51</v>
+      </c>
+      <c r="D96">
+        <v>0.448425352573394</v>
+      </c>
+      <c r="E96">
+        <v>1.2082089185714699</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>63.946765899658203</v>
+      </c>
+      <c r="C97">
+        <v>52.700000762939403</v>
+      </c>
+      <c r="D97">
+        <v>0.44764888286590498</v>
+      </c>
+      <c r="E97">
+        <v>1.2449873685836701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>64.197715759277301</v>
+      </c>
+      <c r="C98">
+        <v>55.100002288818303</v>
+      </c>
+      <c r="D98">
+        <v>0.447450190782547</v>
+      </c>
+      <c r="E98">
+        <v>1.1310791969299301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>64.551330566406193</v>
+      </c>
+      <c r="C99">
+        <v>49.700000762939403</v>
+      </c>
+      <c r="D99">
+        <v>0.44389033317565901</v>
+      </c>
+      <c r="E99">
+        <v>1.29412901401519</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>64.760452270507798</v>
+      </c>
+      <c r="C100">
+        <v>51.5</v>
+      </c>
+      <c r="D100">
+        <v>0.44182032346725397</v>
+      </c>
+      <c r="E100">
+        <v>1.2382335662841699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>64.562736511230398</v>
+      </c>
+      <c r="C101">
+        <v>55.799999237060497</v>
+      </c>
+      <c r="D101">
+        <v>0.44179555773735002</v>
+      </c>
+      <c r="E101">
+        <v>1.0988420248031601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>63.200000762939403</v>
+      </c>
+      <c r="C102">
+        <v>0.95737612247466997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2440CCB-1EEB-6946-97B7-10198F44909E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/preprocessing.xlsx
+++ b/output/preprocessing.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4297F807-50B0-AF45-A391-226BF5BA371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667C9F33-13CD-7C48-8FC4-01A6F97ED42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26860" yWindow="500" windowWidth="24240" windowHeight="13080" activeTab="2" xr2:uid="{46B76DBE-6C6C-3E4B-978B-4194110382F2}"/>
+    <workbookView xWindow="-38400" yWindow="1820" windowWidth="35380" windowHeight="16820" activeTab="3" xr2:uid="{46B76DBE-6C6C-3E4B-978B-4194110382F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="noise reduciton" sheetId="1" r:id="rId1"/>
+    <sheet name="noise-reduciton" sheetId="1" r:id="rId1"/>
     <sheet name="bandpass" sheetId="2" r:id="rId2"/>
-    <sheet name="std xlsr-arabic" sheetId="3" r:id="rId3"/>
+    <sheet name="xlsr" sheetId="3" r:id="rId3"/>
     <sheet name="plot" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>epoch</t>
   </si>
@@ -57,6 +61,9 @@
   </si>
   <si>
     <t>Final Test</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
@@ -109,6 +116,8964 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Preprocessing Audio</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>noise reduction val acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'noise-reduciton'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'noise-reduciton'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.200000760000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.700000760000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.100000380000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.700000760000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.800001139999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.700000760000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.700000760000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.400001529999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.299999239999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.200000760000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.400001529999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.200000760000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44.700000760000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.299999239999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.600002289999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.900001529999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.100002289999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.900001529999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45.700000760000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47.900001529999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.700000760000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43.200000760000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49.700000760000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48.700000760000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46.400001529999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49.100002289999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48.600002289999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46.700000760000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.100002289999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.100002289999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44.299999239999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53.100002289999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>51.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47.200000760000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41.600002289999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40.299999239999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44.600002289999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>46.600002289999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45.200000760000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45.100002289999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42.900001529999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.900001529999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>50.200000760000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41.400001529999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48.700000760000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46.299999239999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45.900001529999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42.900001529999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45.400001529999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>48.600002289999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35.799999239999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>38.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>39.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-934B-8149-AD93-34E23CE7730B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>noise reduce train acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'noise-reduciton'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'noise-reduciton'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>27.182508469999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.992393489999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.068439480000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.870723720000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.368820190000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.749050140000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.783267969999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.718631739999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.212928769999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.737640380000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.87832642</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.026615139999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.80608368</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.551330569999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.365016939999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.809886929999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.224334720000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.52471542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.08745193</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.038021090000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.437263489999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55.916347500000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.539924620000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.300380709999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.444866179999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.117870330000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.851711270000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.741443629999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.262355800000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.311786650000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.604560849999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56.889732359999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.04943085</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56.844104770000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.939163209999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56.673004149999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>56.250949859999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.882129669999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56.612167360000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.752849580000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.836502080000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60.414447780000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.163497919999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60.292774199999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60.053230290000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60.182510379999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>59.623573299999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60.129276279999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59.718631739999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59.923954010000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60.060836790000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60.627376560000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>59.855514530000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.262355800000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>59.942966460000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59.859313960000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.90113831</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60.026615139999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59.889732359999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59.768058779999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59.250949859999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>59.680606840000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>59.562736510000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>59.399238590000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>59.498100280000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>58.992393489999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>59.365016939999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>58.866920469999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>58.414447780000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>59.167301180000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>58.95056915</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>58.688213349999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>59.35361099</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>58.467681880000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>58.779468540000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>59.038021090000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>58.501899719999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>58.901142120000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>59.04943085</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>53.437263488769503</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>53.323192596435497</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>53.300380706787102</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>53.992393493652301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>53.638782501220703</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>53.315589904785099</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>53.832698822021399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>54.269962310791001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>54.053230285644503</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>54.638782501220703</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>54.076045989990199</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>53.855514526367102</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53.836502075195298</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>54.125473022460902</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>54.444866180419901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>53.828895568847599</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>53.570343017578097</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>53.4524726867675</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>54.285171508788999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>54.201519012451101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-934B-8149-AD93-34E23CE7730B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>bandpass filter val acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'noise-reduciton'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bandpass!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.2000007629394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.7000007629394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.600000381469702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>38.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30.600000381469702</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>38.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>39.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>39.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>37.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>36.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>38.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>39.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-934B-8149-AD93-34E23CE7730B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>bandpass filter train acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'noise-reduciton'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bandpass!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>31.817489624023398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.992393493652301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.053230285644503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.825096130371001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.752849578857401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.847908020019503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.745246887207003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.768058776855398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.680606842041001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.148288726806598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.266159057617102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.490493774413999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.418251037597599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.669200897216797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.292774200439403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.840305328369098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.486690521240199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.904941558837798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.8593139648437</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.079849243163999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.403041839599602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.581748962402301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.779468536376903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.171100616455</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49.463878631591797</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49.745246887207003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50.6539916992187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49.9011421203613</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.254753112792898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50.471481323242102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50.711025238037102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50.638782501220703</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50.129276275634702</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.425853729247997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.612167358398402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.536121368408203</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50.406845092773402</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.832698822021399</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.790874481201101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51.117870330810497</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51.441062927246001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.0038032531738</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51.114067077636697</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51.927757263183501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>51.212928771972599</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51.384029388427699</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51.167301177978501</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51.768058776855398</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52.197719573974602</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52.015209197997997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51.787071228027301</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.836502075195298</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>51.821292877197202</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>52.201519012451101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>52.091255187988203</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>52.193916320800703</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.079849243163999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51.992393493652301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>52.471481323242102</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52.205322265625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52.520912170410099</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>52.190113067626903</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53.2091255187988</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>52.543724060058501</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>52.958175659179602</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>52.749050140380803</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>53.038021087646399</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>52.589351654052699</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>53.224334716796797</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>52.509506225585902</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>53.190113067626903</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>52.912548065185497</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>52.825096130371001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>53.019012451171797</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>53.661598205566399</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>53.490493774413999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>52.813686370849602</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>53.889732360839801</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>53.547527313232401</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>53.437263488769503</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>53.323192596435497</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>53.300380706787102</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>53.992393493652301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>53.638782501220703</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>53.315589904785099</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>53.832698822021399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>54.269962310791001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>54.053230285644503</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>54.638782501220703</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>54.076045989990199</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>53.855514526367102</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53.836502075195298</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>54.125473022460902</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>54.444866180419901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>53.828895568847599</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>53.570343017578097</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>53.4524726867675</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>54.285171508788999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>54.201519012451101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-934B-8149-AD93-34E23CE7730B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>xlsr val acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'noise-reduciton'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]xlsr!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.2000007629394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.7000007629394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.899999618530199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.2000007629394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>58.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>47.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>49.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>48.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>49.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>54.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>52.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>51.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>52.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>53.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>53.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>48.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>47.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>51.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>53.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>52.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>48.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>48.600002288818303</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>48.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>52.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>55.100002288818303</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>49.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>55.799999237060497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-934B-8149-AD93-34E23CE7730B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>xlsr train acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'noise-reduciton'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]xlsr!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>29.1520900726318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.992393493652301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.2433471679687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.646389007568303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.783267974853501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.851711273193303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.482891082763601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.163497924804602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.300380706787102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.011405944824197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.049430847167898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.589351654052699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.669200897216797</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.904941558837798</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.5513305664062</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.524715423583899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.885932922363203</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.326995849609297</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.737640380859297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.809886932372997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58.216728210449197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58.950569152832003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58.733840942382798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58.349807739257798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.285171508788999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.174903869628899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>59.399238586425703</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59.319389343261697</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.889732360839801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.2433471679687</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.463878631591797</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59.532318115234297</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>59.463878631591797</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59.676807403564403</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.254753112792898</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.315589904785099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59.889732360839801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.596958160400298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60.0684394836425</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60.296577453613203</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60.235740661621001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60.045627593994098</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.4524726867675</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61.091255187988203</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60.604560852050703</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60.536121368408203</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60.828895568847599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60.912548065185497</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>61.893535614013601</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>62.034221649169901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62.133079528808501</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61.365016937255803</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>61.984790802001903</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62.019012451171797</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62.152091979980398</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61.825096130371001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>61.885932922363203</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61.847908020019503</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62.121673583984297</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62.581748962402301</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.6197700500488</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62.604560852050703</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62.494297027587798</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>62.315589904785099</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>63.167301177978501</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>63.3079833984375</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>63.076045989990199</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>62.745246887207003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>63.049430847167898</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>63.498096466064403</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>62.874523162841797</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>63.300380706787102</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>62.851711273193303</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>63.091255187988203</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>63.182510375976499</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>63.475284576416001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>64.152091979980398</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>63.406845092773402</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>64.429656982421804</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>63.885932922363203</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>63.798477172851499</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>63.768058776855398</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>63.7566528320312</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>63.836502075195298</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>64.011405944824205</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>63.467681884765597</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>64.406845092773395</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>63.684410095214801</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>63.7566528320312</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>64.239540100097599</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>63.699619293212798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>63.866920471191399</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>64.543724060058594</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>63.847908020019503</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>63.946765899658203</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>64.197715759277301</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>64.551330566406193</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>64.760452270507798</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>64.562736511230398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-934B-8149-AD93-34E23CE7730B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1642646719"/>
+        <c:axId val="1642413535"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1642646719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1642413535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1642413535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1642646719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grouping Audio</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>noise reduction</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>train acc</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> val acc</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> test acc </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('noise-reduciton'!$B$102:$C$102,'noise-reduciton'!$B$103)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60.627376560000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.100002289999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.300380706787102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E38-F14D-B60D-01C94FF19D3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>bandpass filter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>train acc</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> val acc</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> test acc </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(bandpass!$B$102:$C$102,bandpass!$B$103)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>54.638782501220703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.200000762939403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E38-F14D-B60D-01C94FF19D3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>xlsr </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>train acc</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> val acc</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> test acc </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>([1]xlsr!$B$102:$C$102,[1]xlsr!$B$103)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64.760452270507798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.200000762939403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E38-F14D-B60D-01C94FF19D3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="114059023"/>
+        <c:axId val="113687679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="114059023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113687679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113687679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="114059023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>146502</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165246</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB91033-02BA-E64B-920E-AE6831CC1480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>502744</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>51306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>587112</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181217</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F013A7-A4DD-D34B-99AE-C29A0FEE2B3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="dnn"/>
+      <sheetName val="lstm"/>
+      <sheetName val="xlsr"/>
+      <sheetName val="plots"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>46</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>57</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>66</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>67</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>71</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>72</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>73</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>74</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>76</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>77</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>78</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>79</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>81</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>82</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>83</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>84</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>86</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>87</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>88</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>89</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>91</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>92</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>93</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>94</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>96</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>97</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>99</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>21.2737637</v>
+          </cell>
+          <cell r="C2">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>21.627376600000002</v>
+          </cell>
+          <cell r="C3">
+            <v>24.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>24.0190105</v>
+          </cell>
+          <cell r="C4">
+            <v>24.800001099999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>27.258554499999999</v>
+          </cell>
+          <cell r="C5">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>38.148288700000002</v>
+          </cell>
+          <cell r="C6">
+            <v>25.100000399999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>40.076045999999998</v>
+          </cell>
+          <cell r="C7">
+            <v>26.399999600000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>40.026615100000001</v>
+          </cell>
+          <cell r="C8">
+            <v>26.300001099999999</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>40.030418400000002</v>
+          </cell>
+          <cell r="C9">
+            <v>27.5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>39.9885941</v>
+          </cell>
+          <cell r="C10">
+            <v>25.600000399999999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>40.034221600000002</v>
+          </cell>
+          <cell r="C11">
+            <v>24.899999600000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>40.068439499999997</v>
+          </cell>
+          <cell r="C12">
+            <v>26.100000399999999</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>40.083648699999998</v>
+          </cell>
+          <cell r="C13">
+            <v>24.899999600000001</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>40.015209200000001</v>
+          </cell>
+          <cell r="C14">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>40.003803300000001</v>
+          </cell>
+          <cell r="C15">
+            <v>26.399999600000001</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>40.038021100000002</v>
+          </cell>
+          <cell r="C16">
+            <v>23.899999600000001</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>40.068439499999997</v>
+          </cell>
+          <cell r="C17">
+            <v>23.899999600000001</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>40.038021100000002</v>
+          </cell>
+          <cell r="C18">
+            <v>27.5</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>40.060836799999997</v>
+          </cell>
+          <cell r="C19">
+            <v>23.5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>40.019012500000002</v>
+          </cell>
+          <cell r="C20">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>40.022811900000001</v>
+          </cell>
+          <cell r="C21">
+            <v>24.200000800000002</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>40.026615100000001</v>
+          </cell>
+          <cell r="C22">
+            <v>22.600000399999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>40.022811900000001</v>
+          </cell>
+          <cell r="C23">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>40.022811900000001</v>
+          </cell>
+          <cell r="C24">
+            <v>25.5</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>40</v>
+          </cell>
+          <cell r="C25">
+            <v>24.700000800000002</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>40.026615100000001</v>
+          </cell>
+          <cell r="C26">
+            <v>25.100000399999999</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>40.0076027</v>
+          </cell>
+          <cell r="C27">
+            <v>23.899999600000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>40.022811900000001</v>
+          </cell>
+          <cell r="C28">
+            <v>23.200000800000002</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>40.003803300000001</v>
+          </cell>
+          <cell r="C29">
+            <v>25.700000800000002</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>40.057033500000003</v>
+          </cell>
+          <cell r="C30">
+            <v>26.899999600000001</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>40.057033500000003</v>
+          </cell>
+          <cell r="C31">
+            <v>24.899999600000001</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>39.984790799999999</v>
+          </cell>
+          <cell r="C32">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>40.038021100000002</v>
+          </cell>
+          <cell r="C33">
+            <v>22.899999600000001</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>40.053230300000003</v>
+          </cell>
+          <cell r="C34">
+            <v>24.100000399999999</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>40.026615100000001</v>
+          </cell>
+          <cell r="C35">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>40.057033500000003</v>
+          </cell>
+          <cell r="C36">
+            <v>27.300001099999999</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>40.030418400000002</v>
+          </cell>
+          <cell r="C37">
+            <v>27.399999600000001</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>40.053230300000003</v>
+          </cell>
+          <cell r="C38">
+            <v>26.100000399999999</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>40.015209200000001</v>
+          </cell>
+          <cell r="C39">
+            <v>29.200000800000002</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>40.034221600000002</v>
+          </cell>
+          <cell r="C40">
+            <v>24.300001099999999</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>39.992393499999999</v>
+          </cell>
+          <cell r="C41">
+            <v>26.5</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>39.992393499999999</v>
+          </cell>
+          <cell r="C42">
+            <v>27.5</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>39.977184299999998</v>
+          </cell>
+          <cell r="C43">
+            <v>27.399999600000001</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>40.026615100000001</v>
+          </cell>
+          <cell r="C44">
+            <v>25.700000800000002</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>40.026615100000001</v>
+          </cell>
+          <cell r="C45">
+            <v>27.200000800000002</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>40</v>
+          </cell>
+          <cell r="C46">
+            <v>25.300001099999999</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>40.034221600000002</v>
+          </cell>
+          <cell r="C47">
+            <v>25.800001099999999</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>40.019012500000002</v>
+          </cell>
+          <cell r="C48">
+            <v>23.5</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>40.034221600000002</v>
+          </cell>
+          <cell r="C49">
+            <v>23.200000800000002</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>40.064639999999997</v>
+          </cell>
+          <cell r="C50">
+            <v>25.600000399999999</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>40.034221600000002</v>
+          </cell>
+          <cell r="C51">
+            <v>26.899999600000001</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>40.041824300000002</v>
+          </cell>
+          <cell r="C52">
+            <v>25.5</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>40.030418400000002</v>
+          </cell>
+          <cell r="C53">
+            <v>25.800001099999999</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>40.015209200000001</v>
+          </cell>
+          <cell r="C54">
+            <v>25.300001099999999</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>40.026615100000001</v>
+          </cell>
+          <cell r="C55">
+            <v>23.800001099999999</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>40.026615100000001</v>
+          </cell>
+          <cell r="C56">
+            <v>25.300001099999999</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>40.045627600000003</v>
+          </cell>
+          <cell r="C57">
+            <v>22.899999600000001</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>40.019012500000002</v>
+          </cell>
+          <cell r="C58">
+            <v>25.899999600000001</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>40.0114059</v>
+          </cell>
+          <cell r="C59">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>40.041824300000002</v>
+          </cell>
+          <cell r="C60">
+            <v>25.100000399999999</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>40.057033500000003</v>
+          </cell>
+          <cell r="C61">
+            <v>26.899999600000001</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>40.034221600000002</v>
+          </cell>
+          <cell r="C62">
+            <v>25.5</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>40.1064644</v>
+          </cell>
+          <cell r="C63">
+            <v>23.600000399999999</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>39.996196699999999</v>
+          </cell>
+          <cell r="C64">
+            <v>23.5</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>40.022811900000001</v>
+          </cell>
+          <cell r="C65">
+            <v>23.899999600000001</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>40</v>
+          </cell>
+          <cell r="C66">
+            <v>24.399999600000001</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>40.034221600000002</v>
+          </cell>
+          <cell r="C67">
+            <v>25.899999600000001</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>40.003803300000001</v>
+          </cell>
+          <cell r="C68">
+            <v>26.100000399999999</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>40.019012500000002</v>
+          </cell>
+          <cell r="C69">
+            <v>25.300001099999999</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>39.965778399999998</v>
+          </cell>
+          <cell r="C70">
+            <v>25.200000800000002</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>40.019012500000002</v>
+          </cell>
+          <cell r="C71">
+            <v>24.800001099999999</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>40.034221600000002</v>
+          </cell>
+          <cell r="C72">
+            <v>23.899999600000001</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>40.053230300000003</v>
+          </cell>
+          <cell r="C73">
+            <v>28.200000800000002</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>40.022811900000001</v>
+          </cell>
+          <cell r="C74">
+            <v>24.899999600000001</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>40.0076027</v>
+          </cell>
+          <cell r="C75">
+            <v>22.5</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>40.030418400000002</v>
+          </cell>
+          <cell r="C76">
+            <v>21.899999600000001</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>40.0076027</v>
+          </cell>
+          <cell r="C77">
+            <v>26.300001099999999</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>40.030418400000002</v>
+          </cell>
+          <cell r="C78">
+            <v>27.600000399999999</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>39.980987499999998</v>
+          </cell>
+          <cell r="C79">
+            <v>25.100000399999999</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>40.015209200000001</v>
+          </cell>
+          <cell r="C80">
+            <v>23.5</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>40.038021100000002</v>
+          </cell>
+          <cell r="C81">
+            <v>25.800001099999999</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>40.038021100000002</v>
+          </cell>
+          <cell r="C82">
+            <v>25.700000800000002</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>39.984790799999999</v>
+          </cell>
+          <cell r="C83">
+            <v>25.300001099999999</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>40.045627600000003</v>
+          </cell>
+          <cell r="C84">
+            <v>22.100000399999999</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>40.045627600000003</v>
+          </cell>
+          <cell r="C85">
+            <v>25.800001099999999</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>40</v>
+          </cell>
+          <cell r="C86">
+            <v>24.200000800000002</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>40.015209200000001</v>
+          </cell>
+          <cell r="C87">
+            <v>26.200000800000002</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>40.034221600000002</v>
+          </cell>
+          <cell r="C88">
+            <v>25.399999600000001</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>40.038021100000002</v>
+          </cell>
+          <cell r="C89">
+            <v>25.5</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>40.060836799999997</v>
+          </cell>
+          <cell r="C90">
+            <v>23.399999600000001</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>39.9885941</v>
+          </cell>
+          <cell r="C91">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>40.038021100000002</v>
+          </cell>
+          <cell r="C92">
+            <v>22.700000800000002</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>39.992393499999999</v>
+          </cell>
+          <cell r="C93">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>40.0076027</v>
+          </cell>
+          <cell r="C94">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>40.045627600000003</v>
+          </cell>
+          <cell r="C95">
+            <v>21.800001099999999</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>40.026615100000001</v>
+          </cell>
+          <cell r="C96">
+            <v>25.5</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>40.098857899999999</v>
+          </cell>
+          <cell r="C97">
+            <v>23.300001099999999</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>40.019012500000002</v>
+          </cell>
+          <cell r="C98">
+            <v>24.200000800000002</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>40.095058399999999</v>
+          </cell>
+          <cell r="C99">
+            <v>25.100000399999999</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>40.079849199999998</v>
+          </cell>
+          <cell r="C100">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>40.041824300000002</v>
+          </cell>
+          <cell r="C101">
+            <v>25.100000399999999</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>40.1064644</v>
+          </cell>
+          <cell r="C102">
+            <v>29.200000800000002</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>24.700000800000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>29.1520900726318</v>
+          </cell>
+          <cell r="C2">
+            <v>25.5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>40</v>
+          </cell>
+          <cell r="C3">
+            <v>26.2000007629394</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>39.992393493652301</v>
+          </cell>
+          <cell r="C4">
+            <v>24.7000007629394</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>40.2433471679687</v>
+          </cell>
+          <cell r="C5">
+            <v>23.899999618530199</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>41.646389007568303</v>
+          </cell>
+          <cell r="C6">
+            <v>30.2000007629394</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>43.783267974853501</v>
+          </cell>
+          <cell r="C7">
+            <v>33.100002288818303</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>45.851711273193303</v>
+          </cell>
+          <cell r="C8">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>47.482891082763601</v>
+          </cell>
+          <cell r="C9">
+            <v>33.600002288818303</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>49.163497924804602</v>
+          </cell>
+          <cell r="C10">
+            <v>35.200000762939403</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>50.300380706787102</v>
+          </cell>
+          <cell r="C11">
+            <v>43.5</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>52.011405944824197</v>
+          </cell>
+          <cell r="C12">
+            <v>36.400001525878899</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>53.049430847167898</v>
+          </cell>
+          <cell r="C13">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>53.589351654052699</v>
+          </cell>
+          <cell r="C14">
+            <v>38.200000762939403</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>54.669200897216797</v>
+          </cell>
+          <cell r="C15">
+            <v>46.200000762939403</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>54.904941558837798</v>
+          </cell>
+          <cell r="C16">
+            <v>45.100002288818303</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>56.5513305664062</v>
+          </cell>
+          <cell r="C17">
+            <v>40.100002288818303</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>56.524715423583899</v>
+          </cell>
+          <cell r="C18">
+            <v>45.5</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>56.885932922363203</v>
+          </cell>
+          <cell r="C19">
+            <v>36.900001525878899</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>57.326995849609297</v>
+          </cell>
+          <cell r="C20">
+            <v>50.700000762939403</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>57.737640380859297</v>
+          </cell>
+          <cell r="C21">
+            <v>45.799999237060497</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>57.809886932372997</v>
+          </cell>
+          <cell r="C22">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>58.216728210449197</v>
+          </cell>
+          <cell r="C23">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>58.950569152832003</v>
+          </cell>
+          <cell r="C24">
+            <v>53.799999237060497</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>58.733840942382798</v>
+          </cell>
+          <cell r="C25">
+            <v>50.600002288818303</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>58.349807739257798</v>
+          </cell>
+          <cell r="C26">
+            <v>46.100002288818303</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>58.285171508788999</v>
+          </cell>
+          <cell r="C27">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>59.174903869628899</v>
+          </cell>
+          <cell r="C28">
+            <v>43.799999237060497</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>59.399238586425703</v>
+          </cell>
+          <cell r="C29">
+            <v>50.600002288818303</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>59.319389343261697</v>
+          </cell>
+          <cell r="C30">
+            <v>52.700000762939403</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>58.889732360839801</v>
+          </cell>
+          <cell r="C31">
+            <v>38.700000762939403</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>59.2433471679687</v>
+          </cell>
+          <cell r="C32">
+            <v>47.299999237060497</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>59.463878631591797</v>
+          </cell>
+          <cell r="C33">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>59.532318115234297</v>
+          </cell>
+          <cell r="C34">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>59.463878631591797</v>
+          </cell>
+          <cell r="C35">
+            <v>46.400001525878899</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>59.676807403564403</v>
+          </cell>
+          <cell r="C36">
+            <v>43.5</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>59.254753112792898</v>
+          </cell>
+          <cell r="C37">
+            <v>51.299999237060497</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>60.315589904785099</v>
+          </cell>
+          <cell r="C38">
+            <v>51.200000762939403</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>59.889732360839801</v>
+          </cell>
+          <cell r="C39">
+            <v>46.200000762939403</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>60.596958160400298</v>
+          </cell>
+          <cell r="C40">
+            <v>49.100002288818303</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>60.0684394836425</v>
+          </cell>
+          <cell r="C41">
+            <v>36.400001525878899</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>60.296577453613203</v>
+          </cell>
+          <cell r="C42">
+            <v>53.5</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>60.235740661621001</v>
+          </cell>
+          <cell r="C43">
+            <v>43.900001525878899</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>60.045627593994098</v>
+          </cell>
+          <cell r="C44">
+            <v>53.900001525878899</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>60.4524726867675</v>
+          </cell>
+          <cell r="C45">
+            <v>50.200000762939403</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>61.091255187988203</v>
+          </cell>
+          <cell r="C46">
+            <v>41.900001525878899</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>60.604560852050703</v>
+          </cell>
+          <cell r="C47">
+            <v>54.600002288818303</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>60.536121368408203</v>
+          </cell>
+          <cell r="C48">
+            <v>47.900001525878899</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>60.828895568847599</v>
+          </cell>
+          <cell r="C49">
+            <v>58.700000762939403</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>60.912548065185497</v>
+          </cell>
+          <cell r="C50">
+            <v>50.200000762939403</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>61.893535614013601</v>
+          </cell>
+          <cell r="C51">
+            <v>47.100002288818303</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>62.034221649169901</v>
+          </cell>
+          <cell r="C52">
+            <v>58.5</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>62.133079528808501</v>
+          </cell>
+          <cell r="C53">
+            <v>51.900001525878899</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>61.365016937255803</v>
+          </cell>
+          <cell r="C54">
+            <v>49.5</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>61.984790802001903</v>
+          </cell>
+          <cell r="C55">
+            <v>50.200000762939403</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>62.019012451171797</v>
+          </cell>
+          <cell r="C56">
+            <v>48.799999237060497</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>62.152091979980398</v>
+          </cell>
+          <cell r="C57">
+            <v>50.799999237060497</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>61.825096130371001</v>
+          </cell>
+          <cell r="C58">
+            <v>41.900001525878899</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>61.885932922363203</v>
+          </cell>
+          <cell r="C59">
+            <v>51.400001525878899</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>61.847908020019503</v>
+          </cell>
+          <cell r="C60">
+            <v>49.100002288818303</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>62.121673583984297</v>
+          </cell>
+          <cell r="C61">
+            <v>48.799999237060497</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>62.581748962402301</v>
+          </cell>
+          <cell r="C62">
+            <v>49.799999237060497</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>62.6197700500488</v>
+          </cell>
+          <cell r="C63">
+            <v>54.400001525878899</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>62.604560852050703</v>
+          </cell>
+          <cell r="C64">
+            <v>52.299999237060497</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>62.494297027587798</v>
+          </cell>
+          <cell r="C65">
+            <v>51.799999237060497</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>62.315589904785099</v>
+          </cell>
+          <cell r="C66">
+            <v>52.100002288818303</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>63.167301177978501</v>
+          </cell>
+          <cell r="C67">
+            <v>46.400001525878899</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>63.3079833984375</v>
+          </cell>
+          <cell r="C68">
+            <v>50.299999237060497</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>63.076045989990199</v>
+          </cell>
+          <cell r="C69">
+            <v>41.799999237060497</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>62.745246887207003</v>
+          </cell>
+          <cell r="C70">
+            <v>47.5</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>63.049430847167898</v>
+          </cell>
+          <cell r="C71">
+            <v>56.900001525878899</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>63.498096466064403</v>
+          </cell>
+          <cell r="C72">
+            <v>43.600002288818303</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>62.874523162841797</v>
+          </cell>
+          <cell r="C73">
+            <v>55.5</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>63.300380706787102</v>
+          </cell>
+          <cell r="C74">
+            <v>53.100002288818303</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>62.851711273193303</v>
+          </cell>
+          <cell r="C75">
+            <v>43.400001525878899</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>63.091255187988203</v>
+          </cell>
+          <cell r="C76">
+            <v>46.799999237060497</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>63.182510375976499</v>
+          </cell>
+          <cell r="C77">
+            <v>53.100002288818303</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>63.475284576416001</v>
+          </cell>
+          <cell r="C78">
+            <v>48.799999237060497</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>64.152091979980398</v>
+          </cell>
+          <cell r="C79">
+            <v>50.100002288818303</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>63.406845092773402</v>
+          </cell>
+          <cell r="C80">
+            <v>47.700000762939403</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>64.429656982421804</v>
+          </cell>
+          <cell r="C81">
+            <v>43.299999237060497</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>63.885932922363203</v>
+          </cell>
+          <cell r="C82">
+            <v>40.200000762939403</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>63.798477172851499</v>
+          </cell>
+          <cell r="C83">
+            <v>51.5</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>63.768058776855398</v>
+          </cell>
+          <cell r="C84">
+            <v>44.5</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>63.7566528320312</v>
+          </cell>
+          <cell r="C85">
+            <v>51.200000762939403</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>63.836502075195298</v>
+          </cell>
+          <cell r="C86">
+            <v>53.600002288818303</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>64.011405944824205</v>
+          </cell>
+          <cell r="C87">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>63.467681884765597</v>
+          </cell>
+          <cell r="C88">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>64.406845092773395</v>
+          </cell>
+          <cell r="C89">
+            <v>52.100002288818303</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>63.684410095214801</v>
+          </cell>
+          <cell r="C90">
+            <v>48.299999237060497</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>63.7566528320312</v>
+          </cell>
+          <cell r="C91">
+            <v>48.600002288818303</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>64.239540100097599</v>
+          </cell>
+          <cell r="C92">
+            <v>52.5</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>63.699619293212798</v>
+          </cell>
+          <cell r="C93">
+            <v>48.400001525878899</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>63.866920471191399</v>
+          </cell>
+          <cell r="C94">
+            <v>53.100002288818303</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>64.543724060058594</v>
+          </cell>
+          <cell r="C95">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>63.847908020019503</v>
+          </cell>
+          <cell r="C96">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>63.946765899658203</v>
+          </cell>
+          <cell r="C97">
+            <v>52.700000762939403</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>64.197715759277301</v>
+          </cell>
+          <cell r="C98">
+            <v>55.100002288818303</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>64.551330566406193</v>
+          </cell>
+          <cell r="C99">
+            <v>49.700000762939403</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>64.760452270507798</v>
+          </cell>
+          <cell r="C100">
+            <v>51.5</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>64.562736511230398</v>
+          </cell>
+          <cell r="C101">
+            <v>55.799999237060497</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>64.760452270507798</v>
+          </cell>
+          <cell r="C102">
+            <v>58.700000762939403</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>63.200000762939403</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="shuffle"/>
+      <sheetName val="no-shuffle"/>
+      <sheetName val="plots"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>19.680608749389599</v>
+          </cell>
+          <cell r="C2">
+            <v>26.399999618530199</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>19.855512619018501</v>
+          </cell>
+          <cell r="C3">
+            <v>26.399999618530199</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>20.015209197998001</v>
+          </cell>
+          <cell r="C4">
+            <v>25.300001144409102</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>19.927757263183501</v>
+          </cell>
+          <cell r="C5">
+            <v>25.2000007629394</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>19.870721817016602</v>
+          </cell>
+          <cell r="C6">
+            <v>25.899999618530199</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>19.482889175415</v>
+          </cell>
+          <cell r="C7">
+            <v>24.600000381469702</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>19.790874481201101</v>
+          </cell>
+          <cell r="C8">
+            <v>25.899999618530199</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>19.870721817016602</v>
+          </cell>
+          <cell r="C9">
+            <v>22.899999618530199</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>19.847908020019499</v>
+          </cell>
+          <cell r="C10">
+            <v>25.899999618530199</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>19.703422546386701</v>
+          </cell>
+          <cell r="C11">
+            <v>24.100000381469702</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>19.954372406005799</v>
+          </cell>
+          <cell r="C12">
+            <v>27.600000381469702</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>19.771862030029201</v>
+          </cell>
+          <cell r="C13">
+            <v>21.5</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>19.866920471191399</v>
+          </cell>
+          <cell r="C14">
+            <v>27.2000007629394</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>19.623573303222599</v>
+          </cell>
+          <cell r="C15">
+            <v>28.399999618530199</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>19.9163494110107</v>
+          </cell>
+          <cell r="C16">
+            <v>24.2000007629394</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>19.923954010009702</v>
+          </cell>
+          <cell r="C17">
+            <v>27.100000381469702</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>19.8136882781982</v>
+          </cell>
+          <cell r="C18">
+            <v>25.800001144409102</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>19.954372406005799</v>
+          </cell>
+          <cell r="C19">
+            <v>23.600000381469702</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>20.205322265625</v>
+          </cell>
+          <cell r="C20">
+            <v>23.600000381469702</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>19.703422546386701</v>
+          </cell>
+          <cell r="C21">
+            <v>23.5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>19.730037689208899</v>
+          </cell>
+          <cell r="C22">
+            <v>26.600000381469702</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>19.787071228027301</v>
+          </cell>
+          <cell r="C23">
+            <v>27.7000007629394</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>19.958175659179599</v>
+          </cell>
+          <cell r="C24">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>19.9315586090087</v>
+          </cell>
+          <cell r="C25">
+            <v>21.899999618530199</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>19.646387100219702</v>
+          </cell>
+          <cell r="C26">
+            <v>29.100000381469702</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>19.855512619018501</v>
+          </cell>
+          <cell r="C27">
+            <v>23.600000381469702</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>19.939163208007798</v>
+          </cell>
+          <cell r="C28">
+            <v>27.800001144409102</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>19.8441066741943</v>
+          </cell>
+          <cell r="C29">
+            <v>27.300001144409102</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>19.490493774413999</v>
+          </cell>
+          <cell r="C30">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>19.756654739379801</v>
+          </cell>
+          <cell r="C31">
+            <v>25.2000007629394</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>19.745246887206999</v>
+          </cell>
+          <cell r="C32">
+            <v>23.2000007629394</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>19.684410095214801</v>
+          </cell>
+          <cell r="C33">
+            <v>28.399999618530199</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>19.771862030029201</v>
+          </cell>
+          <cell r="C34">
+            <v>24.600000381469702</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>19.6920146942138</v>
+          </cell>
+          <cell r="C35">
+            <v>21.5</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>19.714828491210898</v>
+          </cell>
+          <cell r="C36">
+            <v>24.399999618530199</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>19.802280426025298</v>
+          </cell>
+          <cell r="C37">
+            <v>25.7000007629394</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>19.596958160400298</v>
+          </cell>
+          <cell r="C38">
+            <v>24.100000381469702</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>20.079847335815401</v>
+          </cell>
+          <cell r="C39">
+            <v>22.899999618530199</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>19.733840942382798</v>
+          </cell>
+          <cell r="C40">
+            <v>25.7000007629394</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>19.768060684204102</v>
+          </cell>
+          <cell r="C41">
+            <v>22.899999618530199</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>19.8783264160156</v>
+          </cell>
+          <cell r="C42">
+            <v>24.7000007629394</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>19.836502075195298</v>
+          </cell>
+          <cell r="C43">
+            <v>23.899999618530199</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>20.178707122802699</v>
+          </cell>
+          <cell r="C44">
+            <v>26.399999618530199</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>19.779466629028299</v>
+          </cell>
+          <cell r="C45">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>19.866920471191399</v>
+          </cell>
+          <cell r="C46">
+            <v>25.300001144409102</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>19.9467678070068</v>
+          </cell>
+          <cell r="C47">
+            <v>25.600000381469702</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>19.8441066741943</v>
+          </cell>
+          <cell r="C48">
+            <v>25.399999618530199</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>20.0494289398193</v>
+          </cell>
+          <cell r="C49">
+            <v>26.100000381469702</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>19.714828491210898</v>
+          </cell>
+          <cell r="C50">
+            <v>26.100000381469702</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>19.7756652832031</v>
+          </cell>
+          <cell r="C51">
+            <v>25.5</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>19.912548065185501</v>
+          </cell>
+          <cell r="C52">
+            <v>22.2000007629394</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>19.9847908020019</v>
+          </cell>
+          <cell r="C53">
+            <v>21.100000381469702</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>19.730037689208899</v>
+          </cell>
+          <cell r="C54">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>19.9657802581787</v>
+          </cell>
+          <cell r="C55">
+            <v>23.399999618530199</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>19.973382949829102</v>
+          </cell>
+          <cell r="C56">
+            <v>25.899999618530199</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>19.855512619018501</v>
+          </cell>
+          <cell r="C57">
+            <v>23.300001144409102</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>19.836502075195298</v>
+          </cell>
+          <cell r="C58">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>19.752851486206001</v>
+          </cell>
+          <cell r="C59">
+            <v>27.899999618530199</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>19.695817947387599</v>
+          </cell>
+          <cell r="C60">
+            <v>24.399999618530199</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>19.8783264160156</v>
+          </cell>
+          <cell r="C61">
+            <v>26.899999618530199</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>19.825094223022401</v>
+          </cell>
+          <cell r="C62">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>19.920152664184499</v>
+          </cell>
+          <cell r="C63">
+            <v>23.899999618530199</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>19.764259338378899</v>
+          </cell>
+          <cell r="C64">
+            <v>25.899999618530199</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>19.752851486206001</v>
+          </cell>
+          <cell r="C65">
+            <v>23.5</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>19.847908020019499</v>
+          </cell>
+          <cell r="C66">
+            <v>23.100000381469702</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>19.8136882781982</v>
+          </cell>
+          <cell r="C67">
+            <v>24.600000381469702</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>19.927757263183501</v>
+          </cell>
+          <cell r="C68">
+            <v>26.300001144409102</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>19.8783264160156</v>
+          </cell>
+          <cell r="C69">
+            <v>24.800001144409102</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>19.866920471191399</v>
+          </cell>
+          <cell r="C70">
+            <v>22.399999618530199</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>20.247148513793899</v>
+          </cell>
+          <cell r="C71">
+            <v>23.800001144409102</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>19.760456085205</v>
+          </cell>
+          <cell r="C72">
+            <v>28.800001144409102</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>19.912548065185501</v>
+          </cell>
+          <cell r="C73">
+            <v>24.100000381469702</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>19.8783264160156</v>
+          </cell>
+          <cell r="C74">
+            <v>24.899999618530199</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>20.095056533813398</v>
+          </cell>
+          <cell r="C75">
+            <v>24.300001144409102</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>19.923954010009702</v>
+          </cell>
+          <cell r="C76">
+            <v>28.7000007629394</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>20.022813796996999</v>
+          </cell>
+          <cell r="C77">
+            <v>22.800001144409102</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>19.912548065185501</v>
+          </cell>
+          <cell r="C78">
+            <v>23.600000381469702</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>19.908744812011701</v>
+          </cell>
+          <cell r="C79">
+            <v>25.7000007629394</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>20.076045989990199</v>
+          </cell>
+          <cell r="C80">
+            <v>27.399999618530199</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>19.874525070190401</v>
+          </cell>
+          <cell r="C81">
+            <v>26.7000007629394</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>19.973382949829102</v>
+          </cell>
+          <cell r="C82">
+            <v>26.899999618530199</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>19.9809875488281</v>
+          </cell>
+          <cell r="C83">
+            <v>24.899999618530199</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>19.787071228027301</v>
+          </cell>
+          <cell r="C84">
+            <v>23.100000381469702</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>20.0190105438232</v>
+          </cell>
+          <cell r="C85">
+            <v>24.399999618530199</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>19.7072238922119</v>
+          </cell>
+          <cell r="C86">
+            <v>23.600000381469702</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>19.737642288208001</v>
+          </cell>
+          <cell r="C87">
+            <v>23.800001144409102</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>19.859315872192301</v>
+          </cell>
+          <cell r="C88">
+            <v>27.7000007629394</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>19.866920471191399</v>
+          </cell>
+          <cell r="C89">
+            <v>23.300001144409102</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>19.798479080200099</v>
+          </cell>
+          <cell r="C90">
+            <v>26.5</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>19.733840942382798</v>
+          </cell>
+          <cell r="C91">
+            <v>25.399999618530199</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>20.015209197998001</v>
+          </cell>
+          <cell r="C92">
+            <v>28.2000007629394</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>19.870721817016602</v>
+          </cell>
+          <cell r="C93">
+            <v>26.399999618530199</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>19.973382949829102</v>
+          </cell>
+          <cell r="C94">
+            <v>27.399999618530199</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>19.806083679199201</v>
+          </cell>
+          <cell r="C95">
+            <v>28.100000381469702</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>19.8631172180175</v>
+          </cell>
+          <cell r="C96">
+            <v>25.300001144409102</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>19.5893535614013</v>
+          </cell>
+          <cell r="C97">
+            <v>24.7000007629394</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>19.6387825012207</v>
+          </cell>
+          <cell r="C98">
+            <v>28.399999618530199</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>19.958175659179599</v>
+          </cell>
+          <cell r="C99">
+            <v>26.100000381469702</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>19.802280426025298</v>
+          </cell>
+          <cell r="C100">
+            <v>29.100000381469702</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>19.802280426025298</v>
+          </cell>
+          <cell r="C101">
+            <v>22.800001144409102</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>20.247148513793899</v>
+          </cell>
+          <cell r="C102">
+            <v>29.100000381469702</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>23.600000381469702</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,10 +9373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ED8D00-91B0-EE45-AE09-1B805569C73D}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1793,6 +10758,370 @@
         <v>1.4584218259999999</v>
       </c>
     </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>53.437263488769503</v>
+      </c>
+      <c r="C82">
+        <v>40</v>
+      </c>
+      <c r="D82">
+        <v>0.54839068651199296</v>
+      </c>
+      <c r="E82">
+        <v>1.3107724189758301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>53.323192596435497</v>
+      </c>
+      <c r="C83">
+        <v>38</v>
+      </c>
+      <c r="D83">
+        <v>0.54789060354232699</v>
+      </c>
+      <c r="E83">
+        <v>1.3489373922348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>53.300380706787102</v>
+      </c>
+      <c r="C84">
+        <v>42.700000762939403</v>
+      </c>
+      <c r="D84">
+        <v>0.55091774463653498</v>
+      </c>
+      <c r="E84">
+        <v>1.30793321132659</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>53.992393493652301</v>
+      </c>
+      <c r="C85">
+        <v>41</v>
+      </c>
+      <c r="D85">
+        <v>0.54803997278213501</v>
+      </c>
+      <c r="E85">
+        <v>1.3134914636611901</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>53.638782501220703</v>
+      </c>
+      <c r="C86">
+        <v>41.600002288818303</v>
+      </c>
+      <c r="D86">
+        <v>0.54719805717468195</v>
+      </c>
+      <c r="E86">
+        <v>1.3458994626998899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>53.315589904785099</v>
+      </c>
+      <c r="C87">
+        <v>43.400001525878899</v>
+      </c>
+      <c r="D87">
+        <v>0.54611307382583596</v>
+      </c>
+      <c r="E87">
+        <v>1.24650430679321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>53.832698822021399</v>
+      </c>
+      <c r="C88">
+        <v>40.600002288818303</v>
+      </c>
+      <c r="D88">
+        <v>0.54735159873962402</v>
+      </c>
+      <c r="E88">
+        <v>1.38438892364501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>54.269962310791001</v>
+      </c>
+      <c r="C89">
+        <v>37.700000762939403</v>
+      </c>
+      <c r="D89">
+        <v>0.54572552442550604</v>
+      </c>
+      <c r="E89">
+        <v>1.39751625061035</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>54.053230285644503</v>
+      </c>
+      <c r="C90">
+        <v>41.400001525878899</v>
+      </c>
+      <c r="D90">
+        <v>0.54600960016250599</v>
+      </c>
+      <c r="E90">
+        <v>1.38974952697753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>54.638782501220703</v>
+      </c>
+      <c r="C91">
+        <v>38.299999237060497</v>
+      </c>
+      <c r="D91">
+        <v>0.54333966970443703</v>
+      </c>
+      <c r="E91">
+        <v>1.44642174243927</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>54.076045989990199</v>
+      </c>
+      <c r="C92">
+        <v>40.200000762939403</v>
+      </c>
+      <c r="D92">
+        <v>0.54594254493713301</v>
+      </c>
+      <c r="E92">
+        <v>1.3624285459518399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>53.855514526367102</v>
+      </c>
+      <c r="C93">
+        <v>41.700000762939403</v>
+      </c>
+      <c r="D93">
+        <v>0.54515719413757302</v>
+      </c>
+      <c r="E93">
+        <v>1.29558289051055</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>53.836502075195298</v>
+      </c>
+      <c r="C94">
+        <v>42.799999237060497</v>
+      </c>
+      <c r="D94">
+        <v>0.54479670524597101</v>
+      </c>
+      <c r="E94">
+        <v>1.27946436405181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>54.125473022460902</v>
+      </c>
+      <c r="C95">
+        <v>43.700000762939403</v>
+      </c>
+      <c r="D95">
+        <v>0.54554820060729903</v>
+      </c>
+      <c r="E95">
+        <v>1.26250100135803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>54.444866180419901</v>
+      </c>
+      <c r="C96">
+        <v>40.700000762939403</v>
+      </c>
+      <c r="D96">
+        <v>0.54453450441360396</v>
+      </c>
+      <c r="E96">
+        <v>1.3358458280563299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>53.828895568847599</v>
+      </c>
+      <c r="C97">
+        <v>39.900001525878899</v>
+      </c>
+      <c r="D97">
+        <v>0.544663965702056</v>
+      </c>
+      <c r="E97">
+        <v>1.3589824438095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>53.570343017578097</v>
+      </c>
+      <c r="C98">
+        <v>41.700000762939403</v>
+      </c>
+      <c r="D98">
+        <v>0.54542225599288896</v>
+      </c>
+      <c r="E98">
+        <v>1.3433979749679501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>53.4524726867675</v>
+      </c>
+      <c r="C99">
+        <v>41.100002288818303</v>
+      </c>
+      <c r="D99">
+        <v>0.54609662294387795</v>
+      </c>
+      <c r="E99">
+        <v>1.3242923021316499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>54.285171508788999</v>
+      </c>
+      <c r="C100">
+        <v>43</v>
+      </c>
+      <c r="D100">
+        <v>0.54081231355667103</v>
+      </c>
+      <c r="E100">
+        <v>1.3001085519790601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>54.201519012451101</v>
+      </c>
+      <c r="C101">
+        <v>41</v>
+      </c>
+      <c r="D101">
+        <v>0.54259127378463701</v>
+      </c>
+      <c r="E101">
+        <v>1.3189996480941699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <f>MAX(B2:B101)</f>
+        <v>60.627376560000002</v>
+      </c>
+      <c r="C102">
+        <f>MAX(C2:C101)</f>
+        <v>53.100002289999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>53.300380706787102</v>
+      </c>
+      <c r="C103">
+        <v>1.3051346540451001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1800,10 +11129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA67D56-AB7C-0F49-8000-5340AEADF047}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3527,12 +12856,25 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <f>MAX(B2:B101)</f>
+        <v>54.638782501220703</v>
+      </c>
+      <c r="C102">
+        <f>MAX(C2:C101)</f>
+        <v>47.200000762939403</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>5</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>43.200000762939403</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>1.3051346540451001</v>
       </c>
     </row>
@@ -3543,10 +12885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2435A7-CDEC-254D-92F6-4E63EC2CDF53}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5270,12 +14612,25 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <f>MAX(B2:B101)</f>
+        <v>64.760452270507798</v>
+      </c>
+      <c r="C102">
+        <f>MAX(C2:C101)</f>
+        <v>58.700000762939403</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>5</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>63.200000762939403</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>0.95737612247466997</v>
       </c>
     </row>
@@ -5288,12 +14643,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2440CCB-1EEB-6946-97B7-10198F44909E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/preprocessing.xlsx
+++ b/output/preprocessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AF32D0-6BCD-C045-A07D-4AC51E8D4D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BD1A1F-F8D5-D344-B527-5F50EE8DD8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21500" yWindow="500" windowWidth="29420" windowHeight="14620" activeTab="3" xr2:uid="{46B76DBE-6C6C-3E4B-978B-4194110382F2}"/>
   </bookViews>
@@ -6106,6 +6106,8 @@
       <sheetName val="lstm"/>
       <sheetName val="xlsr"/>
       <sheetName val="plots"/>
+      <sheetName val="dnn4"/>
+      <sheetName val="dnn6"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -8241,6 +8243,8 @@
         </row>
       </sheetData>
       <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9089,11 +9093,40 @@
       <sheetName val="plots"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="E2">
+            <v>1.38239705562591</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="E2">
+            <v>1.3915050029754601</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="D2">
+            <v>0.72019922999999997</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="4">
+        <row r="2">
+          <cell r="D2">
+            <v>0.68571740388870195</v>
+          </cell>
+        </row>
         <row r="102">
           <cell r="B102">
             <v>64.760452270507798</v>
@@ -9108,7 +9141,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14682,7 +14715,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L21" zoomScale="163" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
